--- a/data/output/FV2410_FV2404/ORDERS/17121.xlsx
+++ b/data/output/FV2410_FV2404/ORDERS/17121.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="308">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="308">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1032,6 +1032,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U173" totalsRowShown="0">
+  <autoFilter ref="A1:U173"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1321,7 +1351,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9587,5 +9620,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/ORDERS/17121.xlsx
+++ b/data/output/FV2410_FV2404/ORDERS/17121.xlsx
@@ -1973,7 +1973,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4747,7 +4747,7 @@
         <v>291</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5159,7 +5159,7 @@
         <v>294</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6287,7 +6287,7 @@
         <v>297</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6591,7 +6591,7 @@
         <v>298</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8103,7 +8103,7 @@
         <v>301</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9085,7 +9085,7 @@
         <v>303</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9489,7 +9489,7 @@
         <v>305</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N169" s="2"/>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N171" s="2"/>
